--- a/ToFSDKTestFramework/misc/Test_cases.xlsx
+++ b/ToFSDKTestFramework/misc/Test_cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AAbacan2\OneDrive - Analog Devices, Inc\Documents\GitHub\ToF\ToFSDKTestFramework\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://analog-my.sharepoint.com/personal/aldrin_abacan_analog_com/Documents/Documents/GitHub/ToF/ToFSDKTestFramework/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2D2188-811B-45D5-B7E8-250F3C0A2673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{AB2D2188-811B-45D5-B7E8-250F3C0A2673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{351D6EAD-D255-480D-BE6C-C1A48AFB11F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BFC97AFA-E34C-4595-B2D1-A118C6DBA509}"/>
+    <workbookView minimized="1" xWindow="-28800" yWindow="5625" windowWidth="21600" windowHeight="11385" xr2:uid="{BFC97AFA-E34C-4595-B2D1-A118C6DBA509}"/>
   </bookViews>
   <sheets>
     <sheet name="v5.0.0-rc1" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="244">
   <si>
     <t>aditofpython library</t>
   </si>
@@ -588,9 +588,6 @@
     <t>pcm-native is skipped</t>
   </si>
   <si>
-    <t>Request frame succesfully on different sequence, before enabling and after enabling temp compensation</t>
-  </si>
-  <si>
     <t>Test Capture Frame -  capture frame and save for each frane type.Verifythe generated file</t>
   </si>
   <si>
@@ -618,9 +615,6 @@
     <t>test initialize load config - verify different json file inputs on  load config</t>
   </si>
   <si>
-    <t>test temp compensation - capture frame when test compensation is enabled/disabled</t>
-  </si>
-  <si>
     <t>Test mipi speed setting to 1</t>
   </si>
   <si>
@@ -682,6 +676,99 @@
   </si>
   <si>
     <t>process.returncode == 0 . Should have return code of 1</t>
+  </si>
+  <si>
+    <t>SDK_67</t>
+  </si>
+  <si>
+    <t>SDK_68</t>
+  </si>
+  <si>
+    <t>SDK_69</t>
+  </si>
+  <si>
+    <t>SDK_70</t>
+  </si>
+  <si>
+    <t>SDK_71</t>
+  </si>
+  <si>
+    <t>SDK_72</t>
+  </si>
+  <si>
+    <t>SDK_73</t>
+  </si>
+  <si>
+    <t>SDK_74</t>
+  </si>
+  <si>
+    <t>SDK_75</t>
+  </si>
+  <si>
+    <t>SDK_76</t>
+  </si>
+  <si>
+    <t>SDK_77</t>
+  </si>
+  <si>
+    <t>SDK_78</t>
+  </si>
+  <si>
+    <t>SDK_79</t>
+  </si>
+  <si>
+    <t>SDK_80</t>
+  </si>
+  <si>
+    <t>SDK_81</t>
+  </si>
+  <si>
+    <t>SDK_82</t>
+  </si>
+  <si>
+    <t>SDK_83</t>
+  </si>
+  <si>
+    <t>SDK_84</t>
+  </si>
+  <si>
+    <t>test temp compensation - capture laser temp and sensor temp value while temp compensation is enabled/disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Succesfully </t>
+  </si>
+  <si>
+    <t>test generic template - Use generic template API to set/get data from adsd3500</t>
+  </si>
+  <si>
+    <t>Set/get AB invalidation threshold value via generic template</t>
+  </si>
+  <si>
+    <t>Set/get frame rate via generic template</t>
+  </si>
+  <si>
+    <t>Set/get enablemetadatainAB via generic template</t>
+  </si>
+  <si>
+    <t>Use generic template get to read on a write egister</t>
+  </si>
+  <si>
+    <t>Use generic template set towrite on a read register</t>
+  </si>
+  <si>
+    <t>Output value of generic template should match with the specific API for AB invalidation threshold. Successfully set the value via generic template set</t>
+  </si>
+  <si>
+    <t>Output value of generic template should match with the specific API for frame  rate. Successfully set the value via generic template set</t>
+  </si>
+  <si>
+    <t>Output value of generic template should match with the specific API for enablemetadatainAB. Successfully set the value via generic template set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return an error "Cannnot retreive EnableMetadatainAB value via generic template!" </t>
+  </si>
+  <si>
+    <t>EnableMetadatainAB variable should not change upon using generic template</t>
   </si>
 </sst>
 </file>
@@ -749,7 +836,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -809,11 +896,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -821,12 +921,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -837,12 +931,29 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154C0800-E49C-4940-8769-D91A54A5FBBC}">
-  <dimension ref="B1:G68"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60:C68"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,16 +1308,16 @@
       <c r="B2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>184</v>
+      <c r="C2" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G2" s="1"/>
@@ -1215,12 +1326,12 @@
       <c r="B3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G3" s="1"/>
@@ -1229,12 +1340,12 @@
       <c r="B4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G4" s="1"/>
@@ -1243,12 +1354,12 @@
       <c r="B5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G5" s="1"/>
@@ -1257,12 +1368,12 @@
       <c r="B6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G6" s="1"/>
@@ -1271,12 +1382,12 @@
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G7" s="1"/>
@@ -1285,12 +1396,12 @@
       <c r="B8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G8" s="1"/>
@@ -1299,19 +1410,19 @@
       <c r="B9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>185</v>
+      <c r="C9" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1319,15 +1430,15 @@
       <c r="B10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1335,15 +1446,15 @@
       <c r="B11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1351,15 +1462,15 @@
       <c r="B12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1367,15 +1478,15 @@
       <c r="B13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1383,15 +1494,15 @@
       <c r="B14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1399,15 +1510,15 @@
       <c r="B15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="9" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1415,19 +1526,19 @@
       <c r="B16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>186</v>
+      <c r="C16" s="14" t="s">
+        <v>185</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="9" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1435,17 +1546,17 @@
       <c r="B17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="9" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1453,17 +1564,17 @@
       <c r="B18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="9" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1471,17 +1582,17 @@
       <c r="B19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="9" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1489,14 +1600,14 @@
       <c r="B20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G20" s="1"/>
@@ -1505,17 +1616,17 @@
       <c r="B21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="9" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1523,17 +1634,17 @@
       <c r="B22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="9" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1541,16 +1652,16 @@
       <c r="B23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>187</v>
+      <c r="C23" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G23" s="1"/>
@@ -1559,12 +1670,12 @@
       <c r="B24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G24" s="1"/>
@@ -1573,12 +1684,12 @@
       <c r="B25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9" t="s">
+      <c r="E25" s="15"/>
+      <c r="F25" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G25" s="1"/>
@@ -1587,12 +1698,12 @@
       <c r="B26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
+      <c r="E26" s="15"/>
+      <c r="F26" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G26" s="1"/>
@@ -1601,12 +1712,12 @@
       <c r="B27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="15"/>
+      <c r="F27" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G27" s="1"/>
@@ -1615,12 +1726,12 @@
       <c r="B28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9" t="s">
+      <c r="E28" s="15"/>
+      <c r="F28" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G28" s="1"/>
@@ -1629,12 +1740,12 @@
       <c r="B29" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G29" s="1"/>
@@ -1643,19 +1754,19 @@
       <c r="B30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>188</v>
+      <c r="C30" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="9" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1663,15 +1774,15 @@
       <c r="B31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="10" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="9" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1679,15 +1790,15 @@
       <c r="B32" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="10" t="s">
+      <c r="E32" s="15"/>
+      <c r="F32" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="9" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1695,15 +1806,15 @@
       <c r="B33" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="10" t="s">
+      <c r="E33" s="15"/>
+      <c r="F33" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="9" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1711,15 +1822,15 @@
       <c r="B34" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" s="14" t="s">
+      <c r="E34" s="15"/>
+      <c r="F34" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1727,15 +1838,15 @@
       <c r="B35" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="10" t="s">
+      <c r="E35" s="15"/>
+      <c r="F35" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="9" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1743,15 +1854,15 @@
       <c r="B36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="10" t="s">
+      <c r="E36" s="15"/>
+      <c r="F36" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="9" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1759,8 +1870,8 @@
       <c r="B37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>189</v>
+      <c r="C37" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>133</v>
@@ -1768,10 +1879,10 @@
       <c r="E37" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="9" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1779,16 +1890,16 @@
       <c r="B38" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>190</v>
+      <c r="C38" s="14" t="s">
+        <v>189</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G38" s="1"/>
@@ -1797,12 +1908,12 @@
       <c r="B39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9" t="s">
+      <c r="E39" s="15"/>
+      <c r="F39" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G39" s="1"/>
@@ -1811,12 +1922,12 @@
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G40" s="1"/>
@@ -1825,12 +1936,12 @@
       <c r="B41" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G41" s="1"/>
@@ -1839,12 +1950,12 @@
       <c r="B42" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G42" s="1"/>
@@ -1853,12 +1964,12 @@
       <c r="B43" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G43" s="1"/>
@@ -1867,12 +1978,12 @@
       <c r="B44" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="9" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G44" s="1"/>
@@ -1881,16 +1992,16 @@
       <c r="B45" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>193</v>
+      <c r="C45" s="14" t="s">
+        <v>231</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F45" s="9" t="s">
+      <c r="E45" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G45" s="1"/>
@@ -1899,12 +2010,12 @@
       <c r="B46" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9" t="s">
+      <c r="E46" s="15"/>
+      <c r="F46" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G46" s="1"/>
@@ -1913,12 +2024,12 @@
       <c r="B47" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="9" t="s">
+      <c r="E47" s="15"/>
+      <c r="F47" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G47" s="1"/>
@@ -1927,12 +2038,12 @@
       <c r="B48" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9" t="s">
+      <c r="E48" s="15"/>
+      <c r="F48" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G48" s="1"/>
@@ -1941,12 +2052,12 @@
       <c r="B49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="9" t="s">
+      <c r="E49" s="15"/>
+      <c r="F49" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G49" s="1"/>
@@ -1955,12 +2066,12 @@
       <c r="B50" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="7"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="9" t="s">
+      <c r="E50" s="15"/>
+      <c r="F50" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G50" s="1"/>
@@ -1969,12 +2080,12 @@
       <c r="B51" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="7"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="9" t="s">
+      <c r="E51" s="15"/>
+      <c r="F51" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G51" s="1"/>
@@ -1983,8 +2094,8 @@
       <c r="B52" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>192</v>
+      <c r="C52" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>143</v>
@@ -1992,7 +2103,7 @@
       <c r="E52" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G52" s="1"/>
@@ -2001,14 +2112,14 @@
       <c r="B53" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="7"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G53" s="1"/>
@@ -2017,14 +2128,14 @@
       <c r="B54" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="7"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G54" s="1"/>
@@ -2033,14 +2144,14 @@
       <c r="B55" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="7"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G55" s="1"/>
@@ -2049,225 +2160,367 @@
       <c r="B56" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D56" s="16" t="s">
+      <c r="C56" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F56" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G56" s="9"/>
+      <c r="F56" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G56" s="7"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="16" t="s">
+      <c r="C57" s="17"/>
+      <c r="D57" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="F57" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G57" s="9"/>
+      <c r="F57" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="16" t="s">
+      <c r="C58" s="17"/>
+      <c r="D58" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F58" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G58" s="9"/>
+      <c r="F58" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" s="7"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="16" t="s">
+      <c r="C59" s="17"/>
+      <c r="D59" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F59" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G59" s="9"/>
+      <c r="F59" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G60" s="9"/>
+      <c r="D60" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G60" s="7"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G61" s="9"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62" s="9"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G62" s="7"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G63" s="9"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G63" s="7"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="16"/>
+      <c r="D64" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="16"/>
+      <c r="D65" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="16" t="s">
+      <c r="C66" s="16"/>
+      <c r="D66" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E68" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="F66" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="E67" s="16" t="s">
+      <c r="F68" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F67" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="E68" s="16" t="s">
+    </row>
+    <row r="69" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F68" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="G68" s="1" t="s">
+      <c r="C69" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
         <v>214</v>
       </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18"/>
+      <c r="B71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>230</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="E23:E29"/>
+  <mergeCells count="17">
+    <mergeCell ref="C69:C73"/>
     <mergeCell ref="E30:E36"/>
     <mergeCell ref="E38:E44"/>
     <mergeCell ref="C30:C36"/>
@@ -2277,6 +2530,13 @@
     <mergeCell ref="C45:C51"/>
     <mergeCell ref="C52:C55"/>
     <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="E23:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
